--- a/Midreport_PDF/2023Mid/2023MidMgmt.xlsx
+++ b/Midreport_PDF/2023Mid/2023MidMgmt.xlsx
@@ -1172,7 +1172,9 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>5261568.657</v>
+      </c>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1193,8 +1195,12 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>8760592.439999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>772265.46</v>
+      </c>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1393,7 +1399,9 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>46620049.8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1668,7 +1676,9 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>5534522.16</v>
+      </c>
       <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
